--- a/训练中心创客交叉融合空间建设/admin/总理接待准备工作财务记录.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/总理接待准备工作财务记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>付志勇</t>
   </si>
@@ -175,6 +175,42 @@
   </si>
   <si>
     <t>平板电脑</t>
+  </si>
+  <si>
+    <t>高党寻</t>
+  </si>
+  <si>
+    <t>高建兴</t>
+  </si>
+  <si>
+    <t>人员调度</t>
+  </si>
+  <si>
+    <t>内部墙体及天花结构改造</t>
+  </si>
+  <si>
+    <t>木地板</t>
+  </si>
+  <si>
+    <t>内部地面铺设</t>
+  </si>
+  <si>
+    <t>已转账</t>
+  </si>
+  <si>
+    <t>未付，等发票</t>
+  </si>
+  <si>
+    <t>王德宇垫付</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>固态硬盘</t>
+  </si>
+  <si>
+    <t>无线路由器</t>
   </si>
 </sst>
 </file>
@@ -241,7 +277,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -254,25 +290,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J64"/>
+  <dimension ref="B1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -613,6 +654,8 @@
     <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -645,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F64" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F66" si="0">D3*E3</f>
         <v>0</v>
       </c>
     </row>
@@ -686,12 +729,24 @@
       </c>
     </row>
     <row r="7" spans="2:10">
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:10">
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -745,28 +800,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:7">
       <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:7">
       <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:7">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -778,55 +836,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:7">
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F21" s="3">
         <f t="shared" ref="F21:F28" si="1">D21*E21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7">
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F22" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:7">
       <c r="F23" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7">
       <c r="F24" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:7">
       <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:7">
       <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:7">
       <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:7">
       <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:7">
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
@@ -835,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:7">
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
@@ -852,8 +916,11 @@
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
@@ -867,429 +934,541 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="G31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="3">
+        <v>799</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>799</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3">
+        <v>588</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>588</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D34" s="3">
         <v>2980</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="0"/>
         <v>2980</v>
       </c>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D35" s="3">
         <v>259</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="1" t="s">
+      <c r="G35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D36" s="3">
         <v>169</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D37" s="3">
         <v>493</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F37" s="3">
         <f t="shared" si="0"/>
         <v>986</v>
       </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D38" s="3">
         <v>559</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
         <f t="shared" si="0"/>
         <v>559</v>
       </c>
-    </row>
-    <row r="37" spans="3:6">
-      <c r="C37" s="1" t="s">
+      <c r="G38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D39" s="3">
         <v>339</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="1" t="s">
+      <c r="G39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D40" s="3">
         <v>84.9</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
         <f t="shared" si="0"/>
         <v>84.9</v>
       </c>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D41" s="3">
         <v>25.9</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F41" s="3">
         <f t="shared" si="0"/>
         <v>51.8</v>
       </c>
-    </row>
-    <row r="40" spans="3:6">
-      <c r="C40" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D42" s="3">
         <v>29</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <v>5</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F42" s="3">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="41" spans="3:6">
-      <c r="C41" s="1" t="s">
+      <c r="G42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D43" s="3">
         <v>69.900000000000006</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
         <f t="shared" si="0"/>
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D44" s="3">
         <v>49.9</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
         <f t="shared" si="0"/>
         <v>49.9</v>
       </c>
-    </row>
-    <row r="43" spans="3:6">
-      <c r="C43" s="1" t="s">
+      <c r="G44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D45" s="3">
         <v>159</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="1" t="s">
+      <c r="G45" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D46" s="3">
         <v>63</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="1" t="s">
+      <c r="G46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D47" s="3">
         <v>136</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="3:6">
-      <c r="C46" s="1" t="s">
+      <c r="G47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D48" s="3">
         <v>139</v>
       </c>
-      <c r="E46">
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F48" s="3">
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D49" s="3">
         <v>45</v>
       </c>
-      <c r="E47">
+      <c r="E49">
         <v>2</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F49" s="3">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" t="s">
+      <c r="G49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="C50" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D50" s="3">
         <v>439</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
         <f t="shared" si="0"/>
         <v>439</v>
       </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="C49" s="1" t="s">
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="C51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D51" s="3">
         <v>653</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
         <f t="shared" si="0"/>
         <v>653</v>
       </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="C50" s="1" t="s">
+      <c r="G51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D52" s="3">
         <v>114.5</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
         <f t="shared" si="0"/>
         <v>114.5</v>
       </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="C51" s="1" t="s">
+      <c r="G52" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="C53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D53" s="3">
         <v>290</v>
       </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="C52" s="1" t="s">
+      <c r="G53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D54" s="3">
         <v>610</v>
       </c>
-      <c r="E52">
+      <c r="E54">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F54" s="3">
         <f t="shared" si="0"/>
         <v>1830</v>
       </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="C53" s="1" t="s">
+      <c r="G54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D55" s="3">
         <v>1798</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
         <f t="shared" si="0"/>
         <v>1798</v>
       </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="F54" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="1" t="s">
+      <c r="G55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="4">
+        <f>SUM(F32:F55)</f>
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="C56" s="1" t="s">
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="C58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="C57" s="1" t="s">
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="C59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="C58" s="1" t="s">
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="C60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E58">
+      <c r="E60">
         <v>12</v>
       </c>
-      <c r="F58" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="C59" s="1" t="s">
+      <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="C61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E59">
+      <c r="E61">
         <v>12</v>
       </c>
-      <c r="F59" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="C60" s="1" t="s">
+      <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="C62" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F60" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="C61" s="1" t="s">
+      <c r="F62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="C63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="F62" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
       <c r="F63" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:9">
       <c r="F64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
